--- a/currentbuild/CodeSystem-no-kodeverk-XXXX.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-XXXX.codesystem.xlsx
@@ -29,7 +29,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: 2.16.578.1.12.4.1.1.XXXX</t>
+    <t>id: urn:oid:2.16.578.1.12.4.1.1.XXXX</t>
   </si>
   <si>
     <t>Version</t>
